--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,62 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,8 +748,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +783,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +818,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +837,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F12" s="3">
         <v>7500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +938,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +989,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F17" s="3">
         <v>10700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1035,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-8400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-8700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1074,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,22 +1091,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1140,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1175,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-10700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1245,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-8700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1490,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1372,51 +1511,63 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-8700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-8700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,26 +1704,28 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F41" s="3">
         <v>13100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>41100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>14700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,20 +1735,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F42" s="3">
         <v>19900</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +1770,14 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1805,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,26 +1840,32 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,26 +1875,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>163700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>46200</v>
+      </c>
+      <c r="F46" s="3">
         <v>37000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>46800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>16900</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,8 +1910,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,37 +1945,49 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2015,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,19 +2085,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1881,8 +2120,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,26 +2155,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F54" s="3">
         <v>37300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>46800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,26 +2224,28 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,8 +2255,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,26 +2290,32 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,26 +2325,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F60" s="3">
         <v>6500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,8 +2360,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,37 +2395,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,26 +2535,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2338,14 +2673,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>38500</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,26 +2725,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-49100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-38400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-30000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2760,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,26 +2865,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>155800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F76" s="3">
         <v>30700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>40000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-27900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-8700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3029,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +3060,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3235,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-9100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3289,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3320,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3390,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-41700</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3580,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>35400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3650,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-28000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>26400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>4400</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,66 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E12" s="3">
         <v>7300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,43 +1017,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E17" s="3">
         <v>12500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1035,34 +1065,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1097,22 +1131,25 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,43 +1221,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1505,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1517,57 +1587,63 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,29 +1792,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100900</v>
+      </c>
+      <c r="E41" s="3">
         <v>92500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,23 +1828,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E42" s="3">
         <v>61800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>20000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19900</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,29 +1942,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,29 +1980,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>148500</v>
+      </c>
+      <c r="E46" s="3">
         <v>163700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,20 +2056,23 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1977,8 +2085,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2105,8 +2225,8 @@
       <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,29 +2284,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E54" s="3">
         <v>165900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,29 +2356,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,29 +2430,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E59" s="3">
         <v>6900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,29 +2468,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E60" s="3">
         <v>8500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,20 +2544,23 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2573,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,29 +2696,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E66" s="3">
         <v>10100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2679,11 +2847,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>38500</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,29 +2902,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-79100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-66800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-49100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-30000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,29 +3054,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E76" s="3">
         <v>155800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-27900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,20 +3623,23 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-41700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3422,8 +3652,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>134200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>35400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E102" s="3">
         <v>73700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-28000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E12" s="3">
         <v>20800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1044,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E17" s="3">
         <v>28300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1095,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,11 +1153,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1134,22 +1168,25 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,11 +1645,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1590,60 +1660,66 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,32 +1879,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E41" s="3">
         <v>100900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>92500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,26 +1918,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E42" s="3">
         <v>37600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>61800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>20000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>19900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,32 +2041,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E45" s="3">
         <v>10000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,32 +2082,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E46" s="3">
         <v>148500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>163700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2068,14 +2176,14 @@
         <v>1800</v>
       </c>
       <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2088,8 +2196,8 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2228,8 +2348,8 @@
       <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,32 +2410,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>124800</v>
+      </c>
+      <c r="E54" s="3">
         <v>150600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>165900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>37300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,32 +2487,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,32 +2567,35 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E59" s="3">
         <v>13200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,32 +2608,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E60" s="3">
         <v>18900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,23 +2690,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2722,8 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,32 +2854,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E66" s="3">
         <v>20400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2850,11 +3018,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>38500</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,32 +3076,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-107200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-79100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-66800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-49100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-38400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,32 +3240,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E76" s="3">
         <v>130200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>155800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-27900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,23 +3853,26 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E94" s="3">
         <v>24000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-41700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3655,8 +3885,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>134200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>35400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E102" s="3">
         <v>8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>73700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-28000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>26400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,73 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +771,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E12" s="3">
         <v>19900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1070,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E17" s="3">
         <v>30000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1124,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-28300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,14 +1186,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1171,22 +1204,25 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1306,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,14 +1714,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1663,63 +1732,69 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +1965,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E41" s="3">
         <v>48700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>92500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>41100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,29 +2007,32 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E42" s="3">
         <v>67800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>37600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>61800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>20000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>19900</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,8 +2051,11 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2095,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,35 +2139,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
         <v>6400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,35 +2183,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E46" s="3">
         <v>122900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>148500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>163700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,26 +2271,29 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E48" s="3">
         <v>1800</v>
       </c>
       <c r="F48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2199,8 +2306,8 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2208,8 +2315,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2351,8 +2470,8 @@
       <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2372,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2535,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>104500</v>
+      </c>
+      <c r="E54" s="3">
         <v>124800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>150600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>165900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>48400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>37300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,35 +2617,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,35 +2703,38 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E59" s="3">
         <v>18600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,35 +2747,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E60" s="3">
         <v>20500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,26 +2835,29 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2725,8 +2870,8 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3011,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E66" s="3">
         <v>21900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3021,11 +3188,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>38500</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3249,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-160700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-137000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-107200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-79100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-66800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-49100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3425,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E76" s="3">
         <v>102900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>130200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>155800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>40000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-27900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3668,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3994,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,26 +4082,29 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>24000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3888,8 +4117,8 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3897,8 +4126,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>134200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>18300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>35400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-52200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>73700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-28000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E12" s="3">
         <v>13800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,52 +1097,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E17" s="3">
         <v>23700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,43 +1154,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-30000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1189,14 +1223,14 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1207,22 +1241,25 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1717,14 +1787,14 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1735,66 +1805,72 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2052,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E41" s="3">
         <v>57500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>92500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,32 +2097,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E42" s="3">
         <v>39400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>67800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>37600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>61800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>20000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19900</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,8 +2144,11 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,38 +2238,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,38 +2285,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E46" s="3">
         <v>102600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>122900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>148500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>163700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>46800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,29 +2379,32 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1800</v>
       </c>
       <c r="F48" s="3">
         <v>1800</v>
       </c>
       <c r="G48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2309,8 +2417,8 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2318,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2473,8 +2593,8 @@
       <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2661,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>156200</v>
+      </c>
+      <c r="E54" s="3">
         <v>104500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>124800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>150600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>165900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>48400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>37300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,38 +2748,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,38 +2840,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E59" s="3">
         <v>20600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,38 +2887,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E60" s="3">
         <v>21200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,29 +2981,32 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,8 +3019,8 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,38 +3169,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3191,11 +3359,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>38500</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,38 +3423,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-184900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-160700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-137000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-107200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-79100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-66800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-49100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3611,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>135200</v>
+      </c>
+      <c r="E76" s="3">
         <v>81900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>102900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>130200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>155800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>30700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>40000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-27900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,29 +4312,32 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E94" s="3">
         <v>28400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>24000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-41700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4120,8 +4350,8 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E100" s="3">
         <v>3100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>134200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>18300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>35400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>5600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E102" s="3">
         <v>8800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-52200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>73700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-28000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E12" s="3">
         <v>14400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1124,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E17" s="3">
         <v>24200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1184,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-23700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-30000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,20 +1254,20 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1244,22 +1278,25 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,20 +1854,20 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1808,69 +1878,75 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,41 +2139,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E41" s="3">
         <v>84100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>57500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,35 +2187,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E42" s="3">
         <v>64000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>39400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>67800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>37600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>61800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>20000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,41 +2337,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E45" s="3">
         <v>6300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,41 +2387,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E46" s="3">
         <v>154400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>102600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>122900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>148500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>163700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>37000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,32 +2487,35 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1800</v>
       </c>
       <c r="G48" s="3">
         <v>1800</v>
       </c>
       <c r="H48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2420,8 +2528,8 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2596,8 +2716,8 @@
       <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>200</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,41 +2787,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E54" s="3">
         <v>156200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>104500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>124800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>150600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>165900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>48400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,41 +2879,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,41 +2977,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E59" s="3">
         <v>16300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,41 +3027,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E60" s="3">
         <v>19800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,32 +3127,35 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3022,8 +3168,8 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,41 +3327,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E66" s="3">
         <v>21000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3362,11 +3530,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>38500</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,41 +3597,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-210700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-184900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-160700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-137000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-107200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-79100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-66800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-49100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,41 +3797,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E76" s="3">
         <v>135200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>81900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>102900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>130200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>155800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>30700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-27900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,32 +4542,35 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>28400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>24000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-41700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4353,8 +4583,8 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>73500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>134200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>35400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>5600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E102" s="3">
         <v>26600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-52200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>73700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-28000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E12" s="3">
         <v>14800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E17" s="3">
         <v>25900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-24200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-30000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-28300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,20 +1291,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1281,22 +1315,25 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-29800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-28100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-28100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1857,20 +1927,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1881,72 +1951,78 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-28100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-28100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,44 +2226,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E41" s="3">
         <v>78400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>92500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,38 +2277,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E42" s="3">
         <v>47200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>64000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>39400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>67800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>37600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>61800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>20000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,44 +2436,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E45" s="3">
         <v>9600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,44 +2489,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E46" s="3">
         <v>135300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>154400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>122900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>148500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>163700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>46200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,35 +2595,38 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1800</v>
       </c>
       <c r="H48" s="3">
         <v>1800</v>
       </c>
       <c r="I48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,8 +2639,8 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2719,8 +2839,8 @@
       <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>200</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E54" s="3">
         <v>137000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>156200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>104500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>124800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>150600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>165900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>48400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,44 +3010,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,44 +3114,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E59" s="3">
         <v>20100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,44 +3167,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E60" s="3">
         <v>23400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,35 +3273,38 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,8 +3317,8 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,44 +3485,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E66" s="3">
         <v>24500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3533,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>38500</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,44 +3771,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-239200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-210700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-184900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-160700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-137000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-107200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-79100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-66800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-49100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-30000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E76" s="3">
         <v>112400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>135200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>81900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>102900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>130200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>155800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>32600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-27900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-28100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,35 +4772,38 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E94" s="3">
         <v>16800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>28400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>24000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-41700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4586,8 +4816,8 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>73500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>134200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>35400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>5600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-52200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>73700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-28000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,88 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -795,8 +798,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E12" s="3">
         <v>17600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1177,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E17" s="3">
         <v>28400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1243,55 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-25900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,20 +1327,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1318,22 +1351,25 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1477,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-29800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1589,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-25800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-29800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-25800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-29800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1930,20 +1999,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1954,75 +2023,81 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-25800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-29800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-25800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-29800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2312,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E41" s="3">
         <v>70200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>78400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>57500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>92500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,41 +2366,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E42" s="3">
         <v>38600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>47200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>64000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>39400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>67800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>37600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>61800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2422,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,47 +2534,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E45" s="3">
         <v>8100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,47 +2590,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E46" s="3">
         <v>116900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>135300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>154400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>102600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>122900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>148500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>163700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,38 +2702,41 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1800</v>
       </c>
       <c r="I48" s="3">
         <v>1800</v>
       </c>
       <c r="J48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2642,8 +2749,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2651,8 +2758,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2926,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2842,8 +2961,8 @@
       <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>200</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2863,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3038,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E54" s="3">
         <v>118500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>137000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>156200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>104500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>124800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>150600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>165900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3140,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E57" s="3">
         <v>9200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,47 +3250,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E59" s="3">
         <v>21700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,47 +3306,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E60" s="3">
         <v>30800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3362,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,38 +3418,41 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3320,8 +3465,8 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3329,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3642,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E66" s="3">
         <v>31800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3704,11 +3871,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>38500</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +3944,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-266300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-239200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-210700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-184900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-160700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-137000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-107200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-79100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-66800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-49100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4168,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E76" s="3">
         <v>86700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>135200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>81900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>102900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>130200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>155800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>40000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-27900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-25800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-29800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4475,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4889,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,38 +5001,41 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E94" s="3">
         <v>8500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>16800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>28400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>24000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-41700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4819,8 +5048,8 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4828,8 +5057,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>73500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>134200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>35400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>5600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-52200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>73700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-28000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,96 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,64 +961,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F12" s="3">
         <v>15700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>17600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>14800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>14400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>13800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>19900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>20800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>13800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1400</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,64 +1230,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F17" s="3">
         <v>27100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>28400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>25900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>24200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>23700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>30000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>28300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>12500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>17700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1243,55 +1303,61 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-28400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-25900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-24200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-23700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-30000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-28300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-12500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-17700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-10700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-8700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1330,22 +1398,22 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1354,22 +1422,28 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1424,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-27200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-28400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-25800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-24200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-23700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-29800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-28100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-12400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-17600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-10700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-8400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-27200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-28400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-25800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-24200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-23700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-29800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-28100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-12400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-17600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-10700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-8400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-27200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-28400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-25800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-24200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-23700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-29800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-28100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-12400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-17600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-8400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-8700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2002,22 +2142,22 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2026,78 +2166,90 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-27200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-28400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-25800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-24200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-23700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-29800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-28100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-12400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-17600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-8400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-8700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-27200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-28400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-25800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-24200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-23700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-29800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-28100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-12400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-17600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-8400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-8700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,53 +2485,55 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>38200</v>
+      </c>
+      <c r="F41" s="3">
         <v>53900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>70200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>78400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>84100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>57500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>48700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>92500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>18900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>13100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>41100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>14700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,47 +2543,53 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F42" s="3">
         <v>26900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>38600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>47200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>64000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>39400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>67800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>37600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>61800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>20000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>19900</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,8 +2605,14 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,53 +2729,59 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F45" s="3">
         <v>7600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>9600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>10000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>9400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,53 +2791,59 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>63600</v>
+      </c>
+      <c r="F46" s="3">
         <v>88400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>116900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>135300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>154400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>102600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>122900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>148500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>163700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>46200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>37000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>46800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>16900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2853,14 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,44 +2915,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,17 +2968,23 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2964,11 +3204,11 @@
       <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
+        <v>200</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2985,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,53 +3287,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F54" s="3">
         <v>89900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>118500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>137000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>156200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>104500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>124800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>150600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>165900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>48400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>37300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>46800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3349,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,53 +3401,55 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F57" s="3">
         <v>9500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>9200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3459,14 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3253,53 +3521,59 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F59" s="3">
         <v>17000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>21700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>20100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>16300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>20600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>18600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>13200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,53 +3583,59 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F60" s="3">
         <v>26500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>30800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>23400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>19800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>21200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>20500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>18900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>14100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,8 +3645,14 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3421,44 +3707,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,17 +3760,23 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,53 +3955,59 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F66" s="3">
         <v>27400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>31800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>24500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>22600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>21900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>20400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +4017,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3874,14 +4210,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>38500</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -3891,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,53 +4289,59 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-315300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-289400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-266300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-239200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-210700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-184900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-160700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-137000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-107200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-79100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-66800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-49100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-38400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-30000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4351,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,53 +4537,59 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F76" s="3">
         <v>62500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>86700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>112400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>135200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>81900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>102900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>130200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>155800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>32600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>30700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>40000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-27900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4599,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-27200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-28400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-25800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-24200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-23700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-29800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-28100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-12400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-17600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-8400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-8700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4478,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-26900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-15700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-25900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-22200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-22800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-20700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-15900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-18900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-12400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-7800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-9100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-7000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4892,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,44 +5458,50 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F94" s="3">
         <v>11800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>8500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>16800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-24700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>28400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-30200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>24000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-41700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5051,17 +5511,23 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>73500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>134200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>18300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>35400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>5600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-16300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>26600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>8800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-52200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>73700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-28000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>26400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E12" s="3">
         <v>15400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E17" s="3">
         <v>21500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-23100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-30000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-28300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-17700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1404,20 +1438,20 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1428,22 +1462,25 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-24200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-29800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-28100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2300</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-29800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-28100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-29800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-28100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2148,20 +2218,20 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2172,84 +2242,90 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-29800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-28100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-29800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-28100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E41" s="3">
         <v>55700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>70200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>78400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>57500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>92500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>41100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,50 +2636,53 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E42" s="3">
         <v>12000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>17400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>26900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>38600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>47200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>64000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>39400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>67800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>37600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>61800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,56 +2831,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E45" s="3">
         <v>9200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,56 +2896,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E46" s="3">
         <v>76900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>63600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>88400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>116900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>135300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>154400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>102600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>122900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>148500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>163700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>37000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,47 +3026,50 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1800</v>
       </c>
       <c r="L48" s="3">
         <v>1800</v>
       </c>
       <c r="M48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2974,8 +3082,8 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3210,8 +3330,8 @@
       <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="P52" s="3">
+        <v>200</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,56 +3416,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E54" s="3">
         <v>78200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>65000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>89900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>137000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>156200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>104500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>124800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>150600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>165900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>48400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,56 +3533,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,56 +3661,59 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E59" s="3">
         <v>43000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,56 +3726,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E60" s="3">
         <v>51700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,47 +3856,50 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3766,8 +3912,8 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,56 +4116,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E66" s="3">
         <v>52400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4216,11 +4384,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>38500</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,56 +4466,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-334400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-315300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-289400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-266300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-239200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-210700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-184900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-160700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-137000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-107200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-79100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-66800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-49100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-38400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-30000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,56 +4726,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E76" s="3">
         <v>25800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>86700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>112400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>135200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>81900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>102900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>130200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>155800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-27900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-29800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-28100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,47 +5691,50 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>5500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>9500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>16800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>28400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>24000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5517,8 +5747,8 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>30400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>73500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>134200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>18300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>35400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>5600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E102" s="3">
         <v>17500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-52200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>73700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-28000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4400</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -1614,8 +1614,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-19100</v>
       </c>
       <c r="E23" s="3">
         <v>-25900</v>
@@ -1809,8 +1809,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-19100</v>
       </c>
       <c r="E26" s="3">
         <v>-25900</v>
@@ -1874,8 +1874,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-19100</v>
       </c>
       <c r="E27" s="3">
         <v>-25900</v>
@@ -2264,8 +2264,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-19100</v>
       </c>
       <c r="E33" s="3">
         <v>-25900</v>
@@ -2394,8 +2394,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-19100</v>
       </c>
       <c r="E35" s="3">
         <v>-25900</v>
@@ -4934,8 +4934,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-19100</v>
       </c>
       <c r="E81" s="3">
         <v>-25900</v>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,130 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -822,8 +829,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +900,14 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +1002,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F12" s="3">
         <v>13100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>15400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>15000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>15700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>17600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>14800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>14400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>13800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>19900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>20800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>13800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>4300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>6900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1140,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1211,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1310,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F17" s="3">
         <v>19400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>21500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>23100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>27100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>28400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>25900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>24200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>23700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>30000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>28300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>12500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>17700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>10700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-21500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-23100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-27100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="D18" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-25900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-24200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-23700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-30000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-28300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-12500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-17700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-8400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-8700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,49 +1479,51 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1465,22 +1532,28 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1617,14 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1688,85 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-19100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-25900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-23100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-27200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-28400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-25800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-24200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-23700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-29800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-28100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-12400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-17600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-8400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-8700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2300</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-19100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-25900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-23100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-27200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-28400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-25800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-24200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-23700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-29800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-28100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-12400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-17600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-8400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-8700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-19100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-25900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-23100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-27200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-28400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-25800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-24200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-23700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-29800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-28100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-12400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-17600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-8400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-8700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,49 +2327,55 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2245,87 +2384,99 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-19100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-25900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-23100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-27200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-28400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-25800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-24200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-23700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-29800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-28100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-12400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-17600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-8400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-19100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-25900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-23100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-27200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-28400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-25800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-24200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-23700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-29800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-28100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-12400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-17600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-8400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,62 +2745,64 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F41" s="3">
         <v>40400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>55700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>38200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>53900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>70200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>78400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>84100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>57500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>48700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>92500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>18900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>13100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>41100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>14700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,56 +2812,62 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F42" s="3">
         <v>7000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>12000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>17400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>26900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>38600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>47200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>64000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>39400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>67800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>37600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>61800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>20000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>19900</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2883,14 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2954,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,62 +3025,68 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F45" s="3">
         <v>8100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>9200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>9600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>10000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>9400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>4100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>5700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,62 +3096,68 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F46" s="3">
         <v>55500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>76900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>63600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>88400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>116900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>135300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>154400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>102600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>122900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>148500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>163700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>46200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>37000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>46800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>16900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3167,14 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,53 +3238,59 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3085,17 +3300,23 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3522,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3333,11 +3572,11 @@
       <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
+      <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
+        <v>200</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
@@ -3354,8 +3593,14 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3664,68 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F54" s="3">
         <v>56700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>78200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>65000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>89900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>118500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>137000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>156200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>104500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>124800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>150600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>165900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>48400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>37300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>46800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>16900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3735,14 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,62 +3793,64 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F57" s="3">
         <v>7000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>9500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>8800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3860,14 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,62 +3931,68 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F59" s="3">
         <v>39500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>43000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>16300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>17000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>21700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>20100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>16300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>20600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>18600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>13200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3700</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,62 +4002,68 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F60" s="3">
         <v>46500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>51700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>22200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>26500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>30800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>23400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>19800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>21200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>20500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>18900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>14100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,8 +4073,14 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,53 +4144,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3915,17 +4206,23 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,62 +4428,68 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>34300</v>
+      </c>
+      <c r="F66" s="3">
         <v>47100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>52400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>23000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>27400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>31800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>24500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>22600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>21900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>20400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4499,14 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4387,14 +4722,14 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>38500</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,62 +4810,68 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-359000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-348800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-334400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-315300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-289400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-266300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-239200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-210700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-184900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-160700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-137000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-107200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-79100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-66800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-38400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-30000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4881,14 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,62 +5094,68 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F76" s="3">
         <v>9600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>25800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>42000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>62500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>86700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>112400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>135200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>81900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>102900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>130200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>155800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>32600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>30700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>40000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-27900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +5165,14 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-19100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-25900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-23100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-27200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-28400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-25800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-24200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-23700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-29800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-28100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-12400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-17600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-8400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,13 +5414,15 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5033,17 +5430,17 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5084,8 +5481,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5836,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-19400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-18400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-24400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-26900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-15700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-25900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-22200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-22800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-20700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-15900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-18900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-12400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-9100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-7000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5938,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6005,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,53 +6147,59 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F94" s="3">
         <v>5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>5500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>9500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>11800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>8500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>16800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-24700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>28400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-30200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>24000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-41700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5750,17 +6209,23 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6529,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>30400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>73500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>134200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>18300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>35400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>5600</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6671,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-15300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>17500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-15700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-16300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-5600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>26600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>8800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-52200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>8400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>73700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>26400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>4400</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>10700</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,8 +794,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E12" s="3">
         <v>15900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1400</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,88 +1338,92 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E17" s="3">
         <v>21500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10800</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1409,53 +1439,56 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-25900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-24200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-30000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-28300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-17700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1900</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,17 +1514,18 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1507,27 +1541,27 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1538,30 +1572,33 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-10100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1623,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,79 +1734,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-24200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-29800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-28100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2300</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-29800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-28100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2300</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-29800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-28100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2300</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,17 +2400,20 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2359,27 +2429,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2390,93 +2460,99 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-29800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-28100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2300</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-29800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-28100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2300</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,65 +2833,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E41" s="3">
         <v>22900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>53900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>70200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>78400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>57500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>92500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2827,50 +2917,50 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>13900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>26900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>38600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>47200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>64000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>39400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>67800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>37600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>61800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>20000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19900</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,65 +3127,68 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E45" s="3">
         <v>6100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,65 +3201,68 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E46" s="3">
         <v>29100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>55500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>76900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>63600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>88400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>116900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>135300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>154400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>102600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>122900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>148500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>163700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>46200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>37000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>46800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,56 +3349,59 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1800</v>
       </c>
       <c r="O48" s="3">
         <v>1800</v>
       </c>
       <c r="P48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3306,8 +3414,8 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3578,8 +3698,8 @@
       <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
+      <c r="S52" s="3">
+        <v>200</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,65 +3793,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E54" s="3">
         <v>30000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>56700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>78200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>65000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>89900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>137000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>156200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>104500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>124800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>150600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>165900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>48400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16900</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,65 +3925,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,65 +4071,68 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E59" s="3">
         <v>27700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3700</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4008,65 +4145,68 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E60" s="3">
         <v>33300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>30800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6300</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4079,8 +4219,11 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4159,47 +4305,47 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4212,8 +4358,8 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,65 +4589,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E66" s="3">
         <v>34100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>47100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6300</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4728,11 +4896,11 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>38500</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,65 +4987,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-388500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-359000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-348800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-334400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-315300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-289400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-266300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-239200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-210700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-184900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-160700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-137000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-107200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-79100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-66800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-49100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-38400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-30000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,65 +5283,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>42000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>62500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>86700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>112400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>135200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>81900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>102900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>130200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>155800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>40000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-27900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-29800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-28100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2300</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,22 +5614,23 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -5442,8 +5641,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-26900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-25900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1100</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,56 +6380,59 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>13900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>9500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>11800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>16800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>28400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-30200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>24000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6215,8 +6445,8 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>30400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>73500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>134200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>18300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>35400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2900</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>5600</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E102" s="3">
         <v>6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-52200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>73700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-28000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>26400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4400</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>APLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,11 +781,11 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>10700</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +801,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E12" s="3">
         <v>11900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1400</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,82 +1365,86 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E17" s="3">
         <v>17200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1900</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,11 +1452,11 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10800</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,53 +1472,56 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-25900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-24200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-23700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-30000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-17700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1900</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,11 +1558,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1544,27 +1578,27 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1575,22 +1609,25 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,11 +1635,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-24200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-29800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-28100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2300</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-28400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-29800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-28100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2300</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-29800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-28100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2300</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,11 +2482,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,27 +2502,27 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2463,96 +2533,102 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-29800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-28100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2300</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-29800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-28100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2300</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,68 +2920,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E41" s="3">
         <v>35600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>78400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>57500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>92500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14700</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2920,50 +3010,50 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>13900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>17400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>26900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>47200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>64000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>39400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>67800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>37600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>61800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>20000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19900</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,68 +3226,71 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,68 +3303,71 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E46" s="3">
         <v>42800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>29100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>55500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>76900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>63600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>88400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>116900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>135300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>154400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>102600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>122900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>148500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>163700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>46200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>37000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>46800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,59 +3457,62 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1800</v>
       </c>
       <c r="P48" s="3">
         <v>1800</v>
       </c>
       <c r="Q48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3417,8 +3525,8 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="X48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3701,8 +3821,8 @@
       <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
+      <c r="T52" s="3">
+        <v>200</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,68 +3919,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E54" s="3">
         <v>43600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>56700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>78200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>65000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>89900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>137000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>156200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>104500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>124800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>150600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>165900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>48400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16900</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,68 +4056,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,68 +4208,71 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E59" s="3">
         <v>42500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3700</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4148,68 +4285,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E60" s="3">
         <v>47200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>51700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6300</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,59 +4439,62 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>800</v>
       </c>
       <c r="F62" s="3">
+        <v>800</v>
+      </c>
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4507,8 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,68 +4747,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E66" s="3">
         <v>48000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>47100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6300</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4899,11 +5067,11 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>38500</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,68 +5161,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-430900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-388500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-359000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-348800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-334400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-315300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-289400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-266300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-239200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-210700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-184900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-160700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-137000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-107200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-79100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-66800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-49100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-38400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-30000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,68 +5469,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>62500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>86700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>112400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>135200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>81900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>102900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>130200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>155800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-27900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-29800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-28100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2300</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,25 +5813,26 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -5644,8 +5843,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-26900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-25900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-18900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6392,50 +6622,50 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>13900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>11800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>16800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>28400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-30200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>24000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6448,8 +6678,8 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E100" s="3">
         <v>29200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>30400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>73500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>134200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>18300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>35400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2900</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>5600</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>12700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-52200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>73700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-28000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>26400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4400</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
